--- a/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830B6773-DBB9-4AFE-9530-CBCEA5613DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B4AEF2-17FC-4A33-B5E8-E86457A590BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="-19125" windowWidth="17460" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="1" r:id="rId1"/>
@@ -180,27 +180,6 @@
     <t>Demands_Deliveries</t>
   </si>
   <si>
-    <t>A18</t>
-  </si>
-  <si>
-    <t>B18</t>
-  </si>
-  <si>
-    <t>C18</t>
-  </si>
-  <si>
-    <t>G18</t>
-  </si>
-  <si>
-    <t>H18</t>
-  </si>
-  <si>
-    <t>I18</t>
-  </si>
-  <si>
-    <t>J18</t>
-  </si>
-  <si>
     <t>Inflows Extraction Dir</t>
   </si>
   <si>
@@ -250,6 +229,27 @@
   </si>
   <si>
     <t>GroundWaterVars_CS3</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>G19</t>
+  </si>
+  <si>
+    <t>H19</t>
+  </si>
+  <si>
+    <t>I19</t>
+  </si>
+  <si>
+    <t>J19</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -648,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -662,7 +662,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -676,35 +676,35 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -718,7 +718,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -732,7 +732,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -748,7 +748,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -756,7 +756,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -770,7 +770,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -837,26 +837,26 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -864,13 +864,13 @@
         <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">

--- a/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B4AEF2-17FC-4A33-B5E8-E86457A590BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC1C867-EC1C-4BC9-9E32-CB8B6AA606AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="1" r:id="rId1"/>
@@ -213,43 +213,43 @@
     <t>ground_water_variables_v1.xlsx</t>
   </si>
   <si>
-    <t>GW1 DSS Path Indices</t>
-  </si>
-  <si>
-    <t>GW2 DSS Path Indices</t>
-  </si>
-  <si>
-    <t>GW2 Dss path names</t>
-  </si>
-  <si>
-    <t>GW1 Dss path names</t>
-  </si>
-  <si>
     <t>E207</t>
   </si>
   <si>
     <t>GroundWaterVars_CS3</t>
   </si>
   <si>
-    <t>A19</t>
-  </si>
-  <si>
-    <t>B19</t>
-  </si>
-  <si>
-    <t>C19</t>
-  </si>
-  <si>
-    <t>G19</t>
-  </si>
-  <si>
-    <t>H19</t>
-  </si>
-  <si>
-    <t>I19</t>
-  </si>
-  <si>
-    <t>J19</t>
+    <t>A120</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>DV DSS Path Indices</t>
+  </si>
+  <si>
+    <t>DV Dss path names</t>
+  </si>
+  <si>
+    <t>G20</t>
+  </si>
+  <si>
+    <t>SV DSS Path Indices</t>
+  </si>
+  <si>
+    <t>SV Dss path names</t>
+  </si>
+  <si>
+    <t>H20</t>
+  </si>
+  <si>
+    <t>I20</t>
+  </si>
+  <si>
+    <t>J20</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A5" sqref="A5:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -662,7 +662,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -676,29 +676,29 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -756,7 +756,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -770,7 +770,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">

--- a/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC1C867-EC1C-4BC9-9E32-CB8B6AA606AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E8193E-C9D1-4905-BAC4-7365B6A293F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="1" r:id="rId1"/>
@@ -219,37 +219,37 @@
     <t>GroundWaterVars_CS3</t>
   </si>
   <si>
-    <t>A120</t>
-  </si>
-  <si>
-    <t>B20</t>
-  </si>
-  <si>
-    <t>C20</t>
-  </si>
-  <si>
     <t>DV DSS Path Indices</t>
   </si>
   <si>
     <t>DV Dss path names</t>
   </si>
   <si>
-    <t>G20</t>
-  </si>
-  <si>
     <t>SV DSS Path Indices</t>
   </si>
   <si>
     <t>SV Dss path names</t>
   </si>
   <si>
-    <t>H20</t>
-  </si>
-  <si>
-    <t>I20</t>
-  </si>
-  <si>
-    <t>J20</t>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>B21</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>G21</t>
+  </si>
+  <si>
+    <t>H21</t>
+  </si>
+  <si>
+    <t>I21</t>
+  </si>
+  <si>
+    <t>J21</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -662,7 +662,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -676,29 +676,29 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>

--- a/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E8193E-C9D1-4905-BAC4-7365B6A293F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C5ED54-CAAB-4AC6-9A9E-F09F5D8C5049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,25 +231,25 @@
     <t>SV Dss path names</t>
   </si>
   <si>
-    <t>A21</t>
-  </si>
-  <si>
-    <t>B21</t>
-  </si>
-  <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>G21</t>
-  </si>
-  <si>
-    <t>H21</t>
-  </si>
-  <si>
-    <t>I21</t>
-  </si>
-  <si>
-    <t>J21</t>
+    <t>A24</t>
+  </si>
+  <si>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>G24</t>
+  </si>
+  <si>
+    <t>H24</t>
+  </si>
+  <si>
+    <t>I24</t>
+  </si>
+  <si>
+    <t>J24</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D5" sqref="D5:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C5ED54-CAAB-4AC6-9A9E-F09F5D8C5049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DB129B-40F8-4798-A152-E192DB1B11B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="1" r:id="rId1"/>
@@ -231,25 +231,25 @@
     <t>SV Dss path names</t>
   </si>
   <si>
-    <t>A24</t>
-  </si>
-  <si>
-    <t>B24</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
-    <t>G24</t>
-  </si>
-  <si>
-    <t>H24</t>
-  </si>
-  <si>
-    <t>I24</t>
-  </si>
-  <si>
-    <t>J24</t>
+    <t>A25</t>
+  </si>
+  <si>
+    <t>B25</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>G25</t>
+  </si>
+  <si>
+    <t>H25</t>
+  </si>
+  <si>
+    <t>I25</t>
+  </si>
+  <si>
+    <t>J25</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DB129B-40F8-4798-A152-E192DB1B11B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F58E886-49CD-4C4F-AD9C-65AC85FD1688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2700" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="1" r:id="rId1"/>
@@ -231,25 +231,25 @@
     <t>SV Dss path names</t>
   </si>
   <si>
-    <t>A25</t>
-  </si>
-  <si>
-    <t>B25</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>G25</t>
-  </si>
-  <si>
-    <t>H25</t>
-  </si>
-  <si>
-    <t>I25</t>
-  </si>
-  <si>
-    <t>J25</t>
+    <t>A26</t>
+  </si>
+  <si>
+    <t>B26</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>G26</t>
+  </si>
+  <si>
+    <t>H26</t>
+  </si>
+  <si>
+    <t>I26</t>
+  </si>
+  <si>
+    <t>J26</t>
   </si>
 </sst>
 </file>

--- a/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F58E886-49CD-4C4F-AD9C-65AC85FD1688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BC6FB3-F6CF-4AFB-BFA0-31BACC039DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2700" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,25 +231,25 @@
     <t>SV Dss path names</t>
   </si>
   <si>
-    <t>A26</t>
-  </si>
-  <si>
-    <t>B26</t>
-  </si>
-  <si>
-    <t>C26</t>
-  </si>
-  <si>
-    <t>G26</t>
-  </si>
-  <si>
-    <t>H26</t>
-  </si>
-  <si>
-    <t>I26</t>
-  </si>
-  <si>
-    <t>J26</t>
+    <t>A28</t>
+  </si>
+  <si>
+    <t>B28</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>G28</t>
+  </si>
+  <si>
+    <t>H28</t>
+  </si>
+  <si>
+    <t>I28</t>
+  </si>
+  <si>
+    <t>J28</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BC6FB3-F6CF-4AFB-BFA0-31BACC039DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED1E281-E348-4376-80A2-D0A58D0585F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2700" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="1" r:id="rId1"/>
@@ -165,9 +165,6 @@
     <t>A2</t>
   </si>
   <si>
-    <t>O389</t>
-  </si>
-  <si>
     <t>End Date Indices</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>ground_water_variables_v1.xlsx</t>
   </si>
   <si>
-    <t>E207</t>
-  </si>
-  <si>
     <t>GroundWaterVars_CS3</t>
   </si>
   <si>
@@ -231,25 +225,31 @@
     <t>SV Dss path names</t>
   </si>
   <si>
-    <t>A28</t>
-  </si>
-  <si>
-    <t>B28</t>
-  </si>
-  <si>
-    <t>C28</t>
-  </si>
-  <si>
-    <t>G28</t>
-  </si>
-  <si>
-    <t>H28</t>
-  </si>
-  <si>
-    <t>I28</t>
-  </si>
-  <si>
-    <t>J28</t>
+    <t>E258</t>
+  </si>
+  <si>
+    <t>O440</t>
+  </si>
+  <si>
+    <t>A31</t>
+  </si>
+  <si>
+    <t>B31</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>G31</t>
+  </si>
+  <si>
+    <t>H31</t>
+  </si>
+  <si>
+    <t>I31</t>
+  </si>
+  <si>
+    <t>J31</t>
   </si>
 </sst>
 </file>
@@ -586,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D5" sqref="D5:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,7 +599,7 @@
     <col min="3" max="5" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -613,7 +613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -621,15 +621,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -637,7 +637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -650,13 +650,14 @@
       <c r="D5" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
@@ -664,8 +665,9 @@
       <c r="D6" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -678,13 +680,14 @@
       <c r="D7" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -692,13 +695,14 @@
       <c r="D8" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -706,8 +710,9 @@
       <c r="D9" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -720,10 +725,11 @@
       <c r="D10" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -734,8 +740,9 @@
       <c r="D11" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -743,23 +750,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -770,10 +777,10 @@
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -783,10 +790,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -832,31 +839,31 @@
         <v>43</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -864,13 +871,13 @@
         <v>41</v>
       </c>
       <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">

--- a/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED1E281-E348-4376-80A2-D0A58D0585F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF32E99-29AC-4918-9ECE-00D6E1DDD17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="1" r:id="rId1"/>
@@ -231,25 +231,25 @@
     <t>O440</t>
   </si>
   <si>
-    <t>A31</t>
-  </si>
-  <si>
-    <t>B31</t>
-  </si>
-  <si>
-    <t>C31</t>
-  </si>
-  <si>
-    <t>G31</t>
-  </si>
-  <si>
-    <t>H31</t>
-  </si>
-  <si>
-    <t>I31</t>
-  </si>
-  <si>
-    <t>J31</t>
+    <t>A33</t>
+  </si>
+  <si>
+    <t>B33</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>G33</t>
+  </si>
+  <si>
+    <t>H33</t>
+  </si>
+  <si>
+    <t>I33</t>
+  </si>
+  <si>
+    <t>J33</t>
   </si>
 </sst>
 </file>

--- a/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF32E99-29AC-4918-9ECE-00D6E1DDD17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B874FF-DEF2-4810-8F69-492F8C755D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,9 +228,6 @@
     <t>E258</t>
   </si>
   <si>
-    <t>O440</t>
-  </si>
-  <si>
     <t>A33</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>J33</t>
+  </si>
+  <si>
+    <t>O475</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D11"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -663,7 +663,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -678,7 +678,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -693,7 +693,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -708,7 +708,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -723,7 +723,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -738,7 +738,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -839,7 +839,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">

--- a/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B874FF-DEF2-4810-8F69-492F8C755D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0493170D-B48B-463C-9B0A-19066E381E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,28 +228,28 @@
     <t>E258</t>
   </si>
   <si>
-    <t>A33</t>
-  </si>
-  <si>
-    <t>B33</t>
-  </si>
-  <si>
-    <t>C33</t>
-  </si>
-  <si>
-    <t>G33</t>
-  </si>
-  <si>
-    <t>H33</t>
-  </si>
-  <si>
-    <t>I33</t>
-  </si>
-  <si>
-    <t>J33</t>
-  </si>
-  <si>
     <t>O475</t>
+  </si>
+  <si>
+    <t>A36</t>
+  </si>
+  <si>
+    <t>B36</t>
+  </si>
+  <si>
+    <t>C36</t>
+  </si>
+  <si>
+    <t>G36</t>
+  </si>
+  <si>
+    <t>H36</t>
+  </si>
+  <si>
+    <t>I36</t>
+  </si>
+  <si>
+    <t>J36</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D5" sqref="D5:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -663,7 +663,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -678,7 +678,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -693,7 +693,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -708,7 +708,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -723,7 +723,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -738,7 +738,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -839,7 +839,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">

--- a/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262A0231-819A-456B-BDEC-11C92112BD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CF4791-66E4-4955-B9C6-D6E88889A2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,25 +232,25 @@
     <t>O475</t>
   </si>
   <si>
-    <t>A39</t>
-  </si>
-  <si>
-    <t>B39</t>
-  </si>
-  <si>
-    <t>C39</t>
-  </si>
-  <si>
-    <t>G39</t>
-  </si>
-  <si>
-    <t>H39</t>
-  </si>
-  <si>
-    <t>I39</t>
-  </si>
-  <si>
-    <t>J39</t>
+    <t>B40</t>
+  </si>
+  <si>
+    <t>C40</t>
+  </si>
+  <si>
+    <t>G40</t>
+  </si>
+  <si>
+    <t>H40</t>
+  </si>
+  <si>
+    <t>I40</t>
+  </si>
+  <si>
+    <t>J40</t>
+  </si>
+  <si>
+    <t>A40</t>
   </si>
 </sst>
 </file>
@@ -649,7 +649,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -664,7 +664,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -679,7 +679,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -694,7 +694,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -709,7 +709,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -724,7 +724,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -739,7 +739,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="2"/>
     </row>

--- a/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CF4791-66E4-4955-B9C6-D6E88889A2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2290FC-728A-40F9-BC9E-9980B3C11FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,31 +226,31 @@
     <t>SV Dss path names</t>
   </si>
   <si>
-    <t>E258</t>
-  </si>
-  <si>
     <t>O475</t>
   </si>
   <si>
-    <t>B40</t>
-  </si>
-  <si>
-    <t>C40</t>
-  </si>
-  <si>
-    <t>G40</t>
-  </si>
-  <si>
-    <t>H40</t>
-  </si>
-  <si>
-    <t>I40</t>
-  </si>
-  <si>
-    <t>J40</t>
-  </si>
-  <si>
-    <t>A40</t>
+    <t>A43</t>
+  </si>
+  <si>
+    <t>B43</t>
+  </si>
+  <si>
+    <t>C43</t>
+  </si>
+  <si>
+    <t>G43</t>
+  </si>
+  <si>
+    <t>H43</t>
+  </si>
+  <si>
+    <t>I43</t>
+  </si>
+  <si>
+    <t>J43</t>
+  </si>
+  <si>
+    <t>E261</t>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,7 +649,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -778,7 +778,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -840,7 +840,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">

--- a/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2290FC-728A-40F9-BC9E-9980B3C11FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC915A4-3BEA-4089-92B0-AE21CC4B603C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -229,28 +229,28 @@
     <t>O475</t>
   </si>
   <si>
-    <t>A43</t>
-  </si>
-  <si>
-    <t>B43</t>
-  </si>
-  <si>
-    <t>C43</t>
-  </si>
-  <si>
-    <t>G43</t>
-  </si>
-  <si>
-    <t>H43</t>
-  </si>
-  <si>
-    <t>I43</t>
-  </si>
-  <si>
-    <t>J43</t>
-  </si>
-  <si>
     <t>E261</t>
+  </si>
+  <si>
+    <t>A46</t>
+  </si>
+  <si>
+    <t>B46</t>
+  </si>
+  <si>
+    <t>C46</t>
+  </si>
+  <si>
+    <t>G46</t>
+  </si>
+  <si>
+    <t>H46</t>
+  </si>
+  <si>
+    <t>I46</t>
+  </si>
+  <si>
+    <t>J46</t>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D5" sqref="D5:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,7 +649,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -664,7 +664,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -679,7 +679,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -694,7 +694,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -709,7 +709,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -724,7 +724,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -739,7 +739,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -778,7 +778,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">

--- a/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3GroundWaterDataExtractionInitFile_v1.xlsx
@@ -3,15 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC915A4-3BEA-4089-92B0-AE21CC4B603C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FC06BD-C6D3-4D91-88A3-F765E5FC6263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2700" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -229,9 +228,6 @@
     <t>O475</t>
   </si>
   <si>
-    <t>E261</t>
-  </si>
-  <si>
     <t>A46</t>
   </si>
   <si>
@@ -251,6 +247,9 @@
   </si>
   <si>
     <t>J46</t>
+  </si>
+  <si>
+    <t>E265</t>
   </si>
 </sst>
 </file>
@@ -590,7 +589,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -664,7 +663,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -679,7 +678,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -694,7 +693,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -709,7 +708,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -724,7 +723,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -739,7 +738,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -778,7 +777,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
